--- a/Assets/StreamingAssets/Book.xlsx
+++ b/Assets/StreamingAssets/Book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2326A906-F1F9-F644-8E2D-E01C1160DF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE84E911-2411-264D-A7BF-8E4D8DA70C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,10 +121,6 @@
     <t>DialogueVocal</t>
   </si>
   <si>
-    <t>Lee-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I suppose the Master’s formidable skills came from diligently studying these books.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hm? What’s this one?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,27 +165,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It was the Lord’s signature technique—one that takes decades of training to truly master. That’s why no one else in the manor could use it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He had intended to pass it down to Young Lord Ming, but unfortunately…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My condolences, Steward He. Could you tell us more about this technique?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Once mastered, it allows the user to throw twin blades with precision, capable of striking enemies over a hundred meters away. The power is immense.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>With such a formidable martial skill, how could the Master have been killed?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End Investigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Determined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That’s why no one else in the manor could use it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Once mastered, it allows the user to throw twin blades with precision, capable of striking enemies over a hundred meters away. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The power is immense.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suppose the Lord’s formidable skills came from diligently studying these books.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was the Lord’s signature technique.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He had intended to pass it down to Young Lord Ming, but unfortunately......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My condolences, Butler He. Could you tell us more about this technique?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(With such a formidable martial skill, how could the Lord have been killed?)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -660,16 +692,22 @@
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -678,7 +716,7 @@
         <v>500</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
@@ -686,13 +724,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -703,13 +744,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -717,44 +761,59 @@
     </row>
     <row r="5" spans="1:16" ht="34">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="51">
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="34">
+    <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -762,29 +821,59 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="51">
+    <row r="9" spans="1:16" ht="34">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="34">
+    <row r="10" spans="1:16" ht="51">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -792,53 +881,53 @@
     </row>
     <row r="11" spans="1:16" ht="17">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="17">
+    <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:16" ht="17">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -846,27 +935,61 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
-      <c r="J15" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:16" ht="17">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="17">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12">
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/Book.xlsx
+++ b/Assets/StreamingAssets/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE84E911-2411-264D-A7BF-8E4D8DA70C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213AE32-CEE0-6348-9A33-815A5F2D1A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,10 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(With such a formidable martial skill, how could the Lord have been killed?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He-Regular1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +625,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -767,7 +767,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -784,10 +784,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -804,10 +804,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -824,10 +824,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -864,10 +864,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -884,10 +884,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>

--- a/Assets/StreamingAssets/Book.xlsx
+++ b/Assets/StreamingAssets/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213AE32-CEE0-6348-9A33-815A5F2D1A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC65B476-2BC1-3844-850A-1AAFDC69E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -625,7 +625,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
